--- a/results/gurobi_limits/seed_10_k_100.xlsx
+++ b/results/gurobi_limits/seed_10_k_100.xlsx
@@ -423,7 +423,7 @@
         <v>0</v>
       </c>
       <c r="E2">
-        <v>43.474</v>
+        <v>428.523</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -440,7 +440,7 @@
         <v>0</v>
       </c>
       <c r="E3">
-        <v>119.195</v>
+        <v>627.349</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -457,7 +457,7 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>119.979</v>
+        <v>832.907</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -474,7 +474,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>257.301</v>
+        <v>1381.378</v>
       </c>
     </row>
   </sheetData>

--- a/results/gurobi_limits/seed_10_k_100.xlsx
+++ b/results/gurobi_limits/seed_10_k_100.xlsx
@@ -386,7 +386,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -417,64 +417,13 @@
         <v>600</v>
       </c>
       <c r="C2">
-        <v>144923.85</v>
+        <v>15025762.34</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>428.523</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3">
-        <v>350</v>
-      </c>
-      <c r="B3">
-        <v>700</v>
-      </c>
-      <c r="C3">
-        <v>146058.11</v>
-      </c>
-      <c r="D3">
-        <v>0</v>
-      </c>
-      <c r="E3">
-        <v>627.349</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4">
-        <v>400</v>
-      </c>
-      <c r="B4">
-        <v>800</v>
-      </c>
-      <c r="C4">
-        <v>142377.43</v>
-      </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
-      <c r="E4">
-        <v>832.907</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5">
-        <v>500</v>
-      </c>
-      <c r="B5">
-        <v>1000</v>
-      </c>
-      <c r="C5">
-        <v>141108.57</v>
-      </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
-      <c r="E5">
-        <v>1381.378</v>
+        <v>430.532</v>
       </c>
     </row>
   </sheetData>
